--- a/data/2025/slides2025.xlsx
+++ b/data/2025/slides2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4F2383-4CA7-43C6-BB94-488F31FA74D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD290B8-ABA2-48AD-A6DB-21846990C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,9 +358,6 @@
     <t>Poster_TEH.pdf</t>
   </si>
   <si>
-    <t>Poster_Small Populations.pptx</t>
-  </si>
-  <si>
     <t>Poster_Regulatory ESIG.pdf</t>
   </si>
   <si>
@@ -449,6 +446,9 @@
   </si>
   <si>
     <t>Session 9</t>
+  </si>
+  <si>
+    <t>Poster_Small Populations.pdf</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1423,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
         <v>135</v>
       </c>
-      <c r="D27" t="s">
-        <v>136</v>
-      </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -1443,13 +1443,13 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" t="s">
         <v>137</v>
       </c>
-      <c r="D28" t="s">
-        <v>138</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
@@ -1576,7 +1576,7 @@
         <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>106</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
         <v>107</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -1678,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -1729,13 +1729,13 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
@@ -1767,13 +1767,13 @@
         <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -1787,13 +1787,13 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -1807,10 +1807,10 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
         <v>110</v>

--- a/data/2025/slides2025.xlsx
+++ b/data/2025/slides2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD290B8-ABA2-48AD-A6DB-21846990C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C02FF5E-F390-4048-823D-9C4CDC1687FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="144">
   <si>
     <t>Title</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>Poster_Small Populations.pdf</t>
+  </si>
+  <si>
+    <t>Poster_L_L.pdf</t>
+  </si>
+  <si>
+    <t>Poster_methods.pdf</t>
   </si>
 </sst>
 </file>
@@ -887,7 +893,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1595,8 +1601,11 @@
       <c r="D36" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="E36" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="F36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,8 +1726,11 @@
       <c r="D43" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="E43" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="F43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/2025/slides2025.xlsx
+++ b/data/2025/slides2025.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C02FF5E-F390-4048-823D-9C4CDC1687FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C82CBB8-0383-42C5-8A41-1994314B9B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$K$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$58</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
   <si>
     <t>Title</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Poster_methods.pdf</t>
+  </si>
+  <si>
+    <t>06_AI_3_Harbron.pdf</t>
   </si>
 </sst>
 </file>
@@ -891,23 +894,23 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="116.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="115.453125" style="2"/>
+    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="97.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="115.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -927,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -967,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -987,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1317,11 +1320,14 @@
       <c r="D21" t="s">
         <v>38</v>
       </c>
+      <c r="E21" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="F21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>95</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>140</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>140</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>140</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -1831,22 +1837,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E53"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E54"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E55"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E57"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E58"/>
     </row>
   </sheetData>

--- a/data/2025/slides2025.xlsx
+++ b/data/2025/slides2025.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C82CBB8-0383-42C5-8A41-1994314B9B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8DE94E-8D4A-44F4-8F52-AE34846BED16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
   <si>
     <t>Title</t>
   </si>
@@ -208,9 +208,6 @@
     <t>03_TargetPop_1_Kent.pdf</t>
   </si>
   <si>
-    <t>03_TargetPop_2_RamiroAzocar.pdf</t>
-  </si>
-  <si>
     <t>03_TargetPop_3_Hernan.pdf</t>
   </si>
   <si>
@@ -458,6 +455,21 @@
   </si>
   <si>
     <t>06_AI_3_Harbron.pdf</t>
+  </si>
+  <si>
+    <t>03_TargetPop_2_RemiroAzocar</t>
+  </si>
+  <si>
+    <t>02_ICHE20_2_Jennison.pdf</t>
+  </si>
+  <si>
+    <t>10_Assumptions_2_SailerNock</t>
+  </si>
+  <si>
+    <t>Poster_HistData_ESIG_2025</t>
+  </si>
+  <si>
+    <t>Poster_CMC_StatsNetworkEU_ESIG_2025</t>
   </si>
 </sst>
 </file>
@@ -891,26 +903,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="97.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="115.42578125" style="2"/>
+    <col min="1" max="1" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="97.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="115.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -930,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -970,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -978,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -990,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,11 +1016,14 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1075,19 +1091,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1095,19 +1111,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
         <v>92</v>
       </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1134,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
         <v>60</v>
@@ -1127,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1141,13 +1157,13 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1161,13 +1177,13 @@
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,19 +1191,19 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1195,19 +1211,19 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
         <v>81</v>
       </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1215,19 +1231,19 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" t="s">
-        <v>84</v>
-      </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1235,19 +1251,19 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1255,19 +1271,19 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,13 +1297,13 @@
         <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1301,13 +1317,13 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1321,13 +1337,13 @@
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1335,19 +1351,19 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1361,13 +1377,13 @@
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,13 +1397,13 @@
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1401,13 +1417,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1421,55 +1437,55 @@
         <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
         <v>134</v>
       </c>
-      <c r="D27" t="s">
-        <v>135</v>
-      </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
         <v>136</v>
       </c>
-      <c r="D28" t="s">
-        <v>137</v>
-      </c>
       <c r="E28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1485,9 +1501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -1498,14 +1514,16 @@
       <c r="D30" t="s">
         <v>51</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
       <c r="F30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
@@ -1517,13 +1535,13 @@
         <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1531,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
         <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,16 +1566,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="D33" t="s">
-        <v>99</v>
+      <c r="E33" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,16 +1586,16 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,19 +1603,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
         <v>102</v>
       </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1602,19 +1623,19 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1622,19 +1643,19 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
         <v>104</v>
       </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1642,16 +1663,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,16 +1683,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1676,16 +1700,16 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1693,16 +1717,16 @@
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1710,16 +1734,16 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1727,19 +1751,19 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1747,19 +1771,19 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -1767,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
@@ -1777,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1785,19 +1809,19 @@
         <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -1805,19 +1829,19 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -1825,38 +1849,45 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <autoFilter ref="A1:F48" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/data/2025/slides2025.xlsx
+++ b/data/2025/slides2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8DE94E-8D4A-44F4-8F52-AE34846BED16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4D47C5-7310-49E2-9DE8-5FDAFB1C752E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,9 +292,6 @@
     <t>Gaelle Klingelschmitt, Jianmei Wang, Audrey Boruvka, Jenny Devenport (Roche, CH / UK / CA)</t>
   </si>
   <si>
-    <t>Emmanuel Zuber (cogitars, CH), Hans Ulrich Burger (Medical University of Graz, DE), Egbert Biesheuvel (Viatris, NL)</t>
-  </si>
-  <si>
     <t>10th EFSPI regulatory statistics workshop</t>
   </si>
   <si>
@@ -470,6 +467,9 @@
   </si>
   <si>
     <t>Poster_CMC_StatsNetworkEU_ESIG_2025</t>
+  </si>
+  <si>
+    <t>Emmanuel Zuber (cogitamen, CH), Hans Ulrich Burger (Medical University of Graz, DE), Egbert Biesheuvel (Viatris, NL)</t>
   </si>
 </sst>
 </file>
@@ -903,13 +903,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -943,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -983,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,13 +1016,13 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1091,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
         <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
@@ -1103,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1111,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
         <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1123,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1157,13 +1156,13 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1337,13 +1336,13 @@
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -1363,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1443,41 +1442,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
         <v>133</v>
       </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" t="s">
         <v>135</v>
       </c>
-      <c r="D28" t="s">
-        <v>136</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -1485,7 +1484,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1501,9 +1500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -1515,15 +1514,15 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
@@ -1549,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
         <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>96</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1566,13 +1565,13 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
         <v>97</v>
       </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1586,16 +1585,16 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
         <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1603,19 +1602,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1623,19 +1622,19 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1643,19 +1642,19 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
         <v>103</v>
       </c>
-      <c r="D37" t="s">
-        <v>104</v>
-      </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1663,13 +1662,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -1683,10 +1682,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -1700,10 +1699,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -1717,10 +1716,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -1734,16 +1733,16 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1751,19 +1750,19 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1771,13 +1770,13 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -1791,7 +1790,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
@@ -1801,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1809,19 +1808,19 @@
         <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -1829,19 +1828,19 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -1849,13 +1848,13 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -1881,13 +1880,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:F48" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/data/2025/slides2025.xlsx
+++ b/data/2025/slides2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4D47C5-7310-49E2-9DE8-5FDAFB1C752E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04979A63-98A4-47D8-A8EE-49859D4D33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
   <si>
     <t>Title</t>
   </si>
@@ -367,15 +367,9 @@
     <t>Maximo Carreras, Chrissie Fletcher (HTA SIG)</t>
   </si>
   <si>
-    <t>Fred Sorenson, Anders Gorst-Rasmussen, Shahrul Mt-Isa (HTA SIG)</t>
-  </si>
-  <si>
     <t>Katrin Kupas, Min-Hua Jen, Orlando Dohring, Rima Izem (HTA SIG / RWE SIG)</t>
   </si>
   <si>
-    <t>Ash Bullement, Peter Pemberton-Ross, Grammati Sarri, Orlando Dohring (HTA SIG)</t>
-  </si>
-  <si>
     <t>Lada Mitchell, Cornelia Dunger-Baldauf, Jenny Devenport, Yulia Dyachkova (Launch &amp; Lifecycle SIG)</t>
   </si>
   <si>
@@ -470,6 +464,24 @@
   </si>
   <si>
     <t>Emmanuel Zuber (cogitamen, CH), Hans Ulrich Burger (Medical University of Graz, DE), Egbert Biesheuvel (Viatris, NL)</t>
+  </si>
+  <si>
+    <t>Poster_winratio_HTA.pdf</t>
+  </si>
+  <si>
+    <t>Birte Geusens, Rachid Massaad, Anders Gorst-Rasmussen, Fred Sorenson, Shahrul Mt-Isa (HTA SIG)</t>
+  </si>
+  <si>
+    <t>Poster_AdaptiveDesigns_HTA.pdf</t>
+  </si>
+  <si>
+    <t>Ash Bullement, Orlando Dohring, Peter Pemberton-Ross, Grammati Sarri, Katrin Kupas (HTA SIG)</t>
+  </si>
+  <si>
+    <t>Poster_Extrapolation_HTA.pdf</t>
+  </si>
+  <si>
+    <t>Poster_TTE_HTA.pdf</t>
   </si>
 </sst>
 </file>
@@ -903,12 +915,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -942,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -982,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1016,13 +1029,13 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
@@ -1102,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1142,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1156,13 +1169,13 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1222,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1336,13 +1349,13 @@
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1442,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
@@ -1450,19 +1463,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -1470,13 +1483,13 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -1484,7 +1497,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1500,9 +1513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -1514,15 +1527,15 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
@@ -1557,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1584,7 @@
         <v>97</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1594,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1628,13 +1641,13 @@
         <v>107</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1665,16 +1678,16 @@
         <v>104</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1687,11 +1700,14 @@
       <c r="D39" t="s">
         <v>105</v>
       </c>
+      <c r="E39" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1699,16 +1715,19 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1716,16 +1735,19 @@
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="F41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1733,16 +1755,19 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="F42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1750,19 +1775,19 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1770,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
         <v>110</v>
@@ -1790,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
@@ -1800,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1808,10 +1833,10 @@
         <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
         <v>109</v>
@@ -1820,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -1828,19 +1853,19 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -1848,10 +1873,10 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
         <v>108</v>
@@ -1880,6 +1905,13 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <autoFilter ref="A1:F48" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/data/2025/slides2025.xlsx
+++ b/data/2025/slides2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04979A63-98A4-47D8-A8EE-49859D4D33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A48FDC-9F7A-47FC-9B37-B6116EC8650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="154">
   <si>
     <t>Title</t>
   </si>
@@ -448,15 +448,9 @@
     <t>06_AI_3_Harbron.pdf</t>
   </si>
   <si>
-    <t>03_TargetPop_2_RemiroAzocar</t>
-  </si>
-  <si>
     <t>02_ICHE20_2_Jennison.pdf</t>
   </si>
   <si>
-    <t>10_Assumptions_2_SailerNock</t>
-  </si>
-  <si>
     <t>Poster_HistData_ESIG_2025</t>
   </si>
   <si>
@@ -482,6 +476,15 @@
   </si>
   <si>
     <t>Poster_TTE_HTA.pdf</t>
+  </si>
+  <si>
+    <t>03_TargetPop_2_RemiroAzocar.pdf</t>
+  </si>
+  <si>
+    <t>10_Assumptions_2_SailerNock.pdf</t>
+  </si>
+  <si>
+    <t>10_Assumptions_1_Musuamba.pdf</t>
   </si>
 </sst>
 </file>
@@ -915,13 +918,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -955,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -995,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,13 +1031,13 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
@@ -1115,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1155,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1169,13 +1171,13 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -1508,12 +1510,14 @@
       <c r="D29" t="s">
         <v>49</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
       <c r="F29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
@@ -1527,13 +1531,13 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>136</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>97</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1607,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1681,13 +1685,13 @@
         <v>121</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1701,13 +1705,13 @@
         <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1715,19 +1719,19 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1741,13 +1745,13 @@
         <v>123</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1755,19 +1759,19 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1825,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -1905,13 +1909,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:F48" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/data/2025/slides2025.xlsx
+++ b/data/2025/slides2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A48FDC-9F7A-47FC-9B37-B6116EC8650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BE3F1A-ABD5-4875-A8A6-478BA6BC3F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,9 +337,6 @@
     <t>Clinical study data submission in Europe: An EMA-CHMP proof-of-concept pilot</t>
   </si>
   <si>
-    <t>Oliver Sailer, Monika Jelizarow (HTA SIG)</t>
-  </si>
-  <si>
     <t>Adaptive Clinical Trials – what are the challenges and opportunities from an HTA perspective?</t>
   </si>
   <si>
@@ -451,12 +448,6 @@
     <t>02_ICHE20_2_Jennison.pdf</t>
   </si>
   <si>
-    <t>Poster_HistData_ESIG_2025</t>
-  </si>
-  <si>
-    <t>Poster_CMC_StatsNetworkEU_ESIG_2025</t>
-  </si>
-  <si>
     <t>Emmanuel Zuber (cogitamen, CH), Hans Ulrich Burger (Medical University of Graz, DE), Egbert Biesheuvel (Viatris, NL)</t>
   </si>
   <si>
@@ -485,6 +476,15 @@
   </si>
   <si>
     <t>10_Assumptions_1_Musuamba.pdf</t>
+  </si>
+  <si>
+    <t>Poster_CMC_StatsNetworkEU_ESIG_2025.pdf</t>
+  </si>
+  <si>
+    <t>Poster_HistData_ESIG_2025.pdf</t>
+  </si>
+  <si>
+    <t>Oliver Sailer, Monika Jelizarow (Historical Data SIG)</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -528,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,7 +926,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -932,7 +935,7 @@
     <col min="2" max="2" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="97.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="115.453125" style="2"/>
   </cols>
@@ -950,7 +953,7 @@
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -970,7 +973,7 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="2">
@@ -990,7 +993,7 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="2">
@@ -1010,7 +1013,7 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="2">
@@ -1031,7 +1034,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1050,7 +1053,7 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="2">
@@ -1070,7 +1073,7 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="2">
@@ -1090,7 +1093,7 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="2">
@@ -1105,12 +1108,12 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="2">
@@ -1130,7 +1133,7 @@
       <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="2">
@@ -1150,7 +1153,7 @@
       <c r="D11" t="s">
         <v>78</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="2">
@@ -1170,8 +1173,8 @@
       <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
-        <v>151</v>
+      <c r="E12" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1190,7 +1193,7 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="2">
@@ -1210,7 +1213,7 @@
       <c r="D14" t="s">
         <v>79</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F14" s="2">
@@ -1230,7 +1233,7 @@
       <c r="D15" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="2">
@@ -1250,7 +1253,7 @@
       <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="2">
@@ -1270,7 +1273,7 @@
       <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="2">
@@ -1290,7 +1293,7 @@
       <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F18" s="2">
@@ -1310,7 +1313,7 @@
       <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="2">
@@ -1330,7 +1333,7 @@
       <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="2">
@@ -1351,7 +1354,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -1370,7 +1373,7 @@
       <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="2">
@@ -1390,7 +1393,7 @@
       <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="2">
@@ -1410,7 +1413,7 @@
       <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="2">
@@ -1430,7 +1433,7 @@
       <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="2">
@@ -1450,7 +1453,7 @@
       <c r="D26" t="s">
         <v>47</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F26" s="2">
@@ -1465,13 +1468,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
         <v>130</v>
       </c>
-      <c r="D27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" t="s">
-        <v>134</v>
+      <c r="E27" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -1485,13 +1488,13 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
         <v>132</v>
       </c>
-      <c r="D28" t="s">
-        <v>133</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -1499,7 +1502,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1510,8 +1513,8 @@
       <c r="D29" t="s">
         <v>49</v>
       </c>
-      <c r="E29" t="s">
-        <v>153</v>
+      <c r="E29" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -1519,7 +1522,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -1530,8 +1533,8 @@
       <c r="D30" t="s">
         <v>51</v>
       </c>
-      <c r="E30" t="s">
-        <v>152</v>
+      <c r="E30" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -1539,7 +1542,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
@@ -1550,7 +1553,7 @@
       <c r="D31" t="s">
         <v>53</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>76</v>
       </c>
       <c r="F31" s="2">
@@ -1588,7 +1591,7 @@
         <v>97</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1624,8 +1627,8 @@
       <c r="D35" t="s">
         <v>101</v>
       </c>
-      <c r="E35" t="s">
-        <v>111</v>
+      <c r="E35" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -1639,13 +1642,13 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -1664,8 +1667,8 @@
       <c r="D37" t="s">
         <v>103</v>
       </c>
-      <c r="E37" t="s">
-        <v>112</v>
+      <c r="E37" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -1679,13 +1682,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -1699,13 +1702,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>147</v>
+        <v>104</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -1719,13 +1722,13 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -1739,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
@@ -1759,13 +1762,13 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -1779,13 +1782,13 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -1799,13 +1802,13 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" t="s">
-        <v>110</v>
+        <v>125</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -1819,12 +1822,12 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -1837,13 +1840,13 @@
         <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" t="s">
-        <v>109</v>
+        <v>126</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -1857,13 +1860,13 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" t="s">
-        <v>137</v>
+        <v>127</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -1877,35 +1880,32 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" t="s">
-        <v>108</v>
+        <v>128</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="3"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58"/>
+      <c r="E58" s="4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/data/2025/slides2025.xlsx
+++ b/data/2025/slides2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BE3F1A-ABD5-4875-A8A6-478BA6BC3F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2E67CF-019F-4943-8CA1-858555120843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>Navigating priorities from regulatory perspective</t>
   </si>
   <si>
-    <t>Mouna Akacha (Co-chair EFSPI statistical methodology leaders, Novartis, CH)</t>
-  </si>
-  <si>
     <t>Strategic priorities in pharmaceutical statistics – A quantitative drug developer’s perspective</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>Oliver Sailer, Monika Jelizarow (Historical Data SIG)</t>
+  </si>
+  <si>
+    <t>Mouna Akacha (presenter), Kaspar Rufibach, Cornelia Kunz (Co-chairs EFSPI statistical methodology leaders, Novartis, CH)</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -988,13 +988,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -1008,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1028,13 +1028,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1048,13 +1048,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1068,13 +1068,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1088,13 +1088,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
         <v>90</v>
       </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1148,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1168,13 +1168,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1188,13 +1188,13 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1208,13 +1208,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -1228,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1248,13 +1248,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -1268,13 +1268,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1288,13 +1288,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -1308,13 +1308,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1328,13 +1328,13 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -1348,13 +1348,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -1368,13 +1368,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -1388,13 +1388,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1408,13 +1408,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -1428,13 +1428,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
         <v>44</v>
       </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -1448,13 +1448,13 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -1462,19 +1462,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
         <v>129</v>
       </c>
-      <c r="D27" t="s">
-        <v>130</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -1482,19 +1482,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
         <v>131</v>
       </c>
-      <c r="D28" t="s">
-        <v>132</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -1502,19 +1502,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
         <v>48</v>
       </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -1522,19 +1522,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
         <v>50</v>
       </c>
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -1542,19 +1542,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -1568,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
         <v>94</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
         <v>96</v>
       </c>
-      <c r="D33" t="s">
-        <v>97</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1605,10 +1605,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
         <v>98</v>
-      </c>
-      <c r="D34" t="s">
-        <v>99</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
         <v>100</v>
       </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -1642,13 +1642,13 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -1662,13 +1662,13 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
         <v>102</v>
       </c>
-      <c r="D37" t="s">
-        <v>103</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -1682,13 +1682,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -1702,13 +1702,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -1722,13 +1722,13 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -1742,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
@@ -1762,13 +1762,13 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -1782,13 +1782,13 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -1802,13 +1802,13 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -1822,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
@@ -1840,13 +1840,13 @@
         <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -1860,13 +1860,13 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -1880,13 +1880,13 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
